--- a/database/data_to_add/added/2020-6-23/Noyle_1984_tbl14.xlsx
+++ b/database/data_to_add/added/2020-6-23/Noyle_1984_tbl14.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacif\Desktop\Project\Extracted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\added\2020-6-23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43B69380-521A-4972-A5EF-274FF0A7565E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A026EE-B8AB-49E6-ACE1-714CA2C1D770}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M21"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
